--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-856767.0076936228</v>
+        <v>-860332.5095671716</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12745302.96281052</v>
+        <v>12741763.08646801</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.2659060687077</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>179.5274740779901</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.5248520122631</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>141.491020504439</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>7.646350343051242</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>161.4240189925247</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>110.2674310724364</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>223.1108104349736</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>97.55131607832099</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.5248520122631</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>43.66380379007099</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>120.634720153647</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>132.5704042132309</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>363.5355397448835</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1145,13 +1145,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.8150154593922</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>256.4561542453789</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>33.13362445281406</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362794</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>72.76355745737095</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1430,10 +1430,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717784</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465751</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442478</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>52.26548511419586</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901681</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>71.00574328545085</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1664,16 +1664,16 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>14.30983121141318</v>
+        <v>234.8656199178708</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>115.3458276765887</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>204.915317756456</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277449</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059316</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422874407</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,7 +2327,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412925</v>
@@ -2369,13 +2369,13 @@
         <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.9290753658111</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978639</v>
@@ -2542,7 +2542,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035424</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838878</v>
+        <v>24.17382596574974</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828888</v>
+        <v>52.06849973564987</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431723</v>
+        <v>70.57601873167819</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459964</v>
+        <v>55.7231469819606</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643936</v>
+        <v>41.29686219380032</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931847</v>
+        <v>41.22330424667943</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908574</v>
+        <v>42.9727556664467</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147788</v>
+        <v>53.79159358883884</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804992</v>
+        <v>41.14384575541088</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922185</v>
+        <v>18.98356133658281</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367777</v>
+        <v>9.882059701038727</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920509</v>
+        <v>88.00800320656604</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
         <v>90.90562710059314</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059322</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.995969188804</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.1430974390864</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092613</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380524</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357251</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596464</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253669</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708617</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369185</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.5209712559388</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>589.2502909868333</v>
+        <v>1027.725507515517</v>
       </c>
       <c r="C2" t="n">
-        <v>589.2502909868333</v>
+        <v>634.5500060184474</v>
       </c>
       <c r="D2" t="n">
-        <v>203.809162203501</v>
+        <v>634.5500060184474</v>
       </c>
       <c r="E2" t="n">
-        <v>203.809162203501</v>
+        <v>231.966481134992</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>773.3325661833825</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>773.3325661833825</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713897</v>
+        <v>1286.93524479307</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606225</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582685</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="U2" t="n">
-        <v>1913.289453582685</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="V2" t="n">
-        <v>1571.182644286204</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="W2" t="n">
-        <v>1200.183609254491</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="X2" t="n">
-        <v>810.7310041875481</v>
+        <v>1424.216216594916</v>
       </c>
       <c r="Y2" t="n">
-        <v>810.7310041875481</v>
+        <v>1027.725507515517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.2074120948781</v>
+        <v>556.1927859813156</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414078</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628882</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>959.915873575022</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.897595591875</v>
+        <v>1552.274689874027</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182856</v>
+        <v>2065.877368483715</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>2065.877368483715</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>986.923969267596</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y3" t="n">
-        <v>844.0037465358395</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.9871279299706</v>
+        <v>506.0538632634233</v>
       </c>
       <c r="C4" t="n">
-        <v>487.7820099959598</v>
+        <v>498.330277058321</v>
       </c>
       <c r="D4" t="n">
-        <v>332.1488968984746</v>
+        <v>498.330277058321</v>
       </c>
       <c r="E4" t="n">
-        <v>176.5900847576771</v>
+        <v>498.330277058321</v>
       </c>
       <c r="F4" t="n">
-        <v>176.5900847576771</v>
+        <v>498.330277058321</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>657.9871279299706</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T4" t="n">
-        <v>657.9871279299706</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U4" t="n">
-        <v>657.9871279299706</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V4" t="n">
-        <v>657.9871279299706</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="W4" t="n">
-        <v>657.9871279299706</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="X4" t="n">
-        <v>657.9871279299706</v>
+        <v>506.0538632634233</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.9871279299706</v>
+        <v>506.0538632634233</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1807.648996664834</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="C5" t="n">
-        <v>1414.473495167765</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="D5" t="n">
-        <v>1414.473495167765</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>74.8843274327462</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>74.8843274327462</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>74.8843274327462</v>
       </c>
       <c r="M5" t="n">
-        <v>1022.086525067008</v>
+        <v>588.487006042434</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.89780870447</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596798</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737747</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737747</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172346</v>
+        <v>1391.402537037508</v>
       </c>
       <c r="V5" t="n">
-        <v>1807.648996664834</v>
+        <v>1049.295727741027</v>
       </c>
       <c r="W5" t="n">
-        <v>1807.648996664834</v>
+        <v>678.2966927093144</v>
       </c>
       <c r="X5" t="n">
-        <v>1807.648996664834</v>
+        <v>288.8440876423712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1807.648996664834</v>
+        <v>63.47963265754937</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>790.7440950022731</v>
+        <v>556.1927859813156</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414078</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628882</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875478</v>
+        <v>1047.956980597545</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>1561.559659207233</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2150.865926635811</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1973.88211483472</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1763.818971513361</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1541.278969884429</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1311.161724017715</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>1121.854646367727</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y6" t="n">
-        <v>942.5404294432344</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1287724922402</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922402</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475494</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475494</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475494</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475494</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1884398884329</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>433.2090947092571</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2090947092571</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="X7" t="n">
-        <v>199.1287724922402</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.1287724922402</v>
+        <v>374.1810754709696</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.203951264046</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="C8" t="n">
-        <v>1567.203951264046</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="D8" t="n">
-        <v>1199.996335360124</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E8" t="n">
-        <v>797.412810476668</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.65655633099</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>1567.203951264046</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1567.203951264046</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>337.7333302514928</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>337.7333302514928</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>337.7333302514928</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>337.7333302514928</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>713.0409408113302</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="X10" t="n">
-        <v>478.9606185943132</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.9606185943132</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1434.218555009979</v>
+        <v>1307.938859445371</v>
       </c>
       <c r="C11" t="n">
-        <v>1112.839328659104</v>
+        <v>986.5596330944959</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.371021131008</v>
+        <v>986.5596330944959</v>
       </c>
       <c r="E11" t="n">
-        <v>748.5837713937467</v>
+        <v>655.7723833572343</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699184</v>
+        <v>655.7723833572343</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998632</v>
+        <v>3032.457842319543</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2848.501387900335</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2578.190853750048</v>
       </c>
       <c r="W11" t="n">
-        <v>2405.267789429136</v>
+        <v>2278.988093864529</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.611459508387</v>
+        <v>1961.33176394378</v>
       </c>
       <c r="Y11" t="n">
-        <v>1762.917025575182</v>
+        <v>1636.637330010574</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.0415815981118</v>
+        <v>328.1273454378272</v>
       </c>
       <c r="C13" t="n">
-        <v>368.0415815981118</v>
+        <v>229.7185026500104</v>
       </c>
       <c r="D13" t="n">
-        <v>284.2047436468208</v>
+        <v>145.8816646987191</v>
       </c>
       <c r="E13" t="n">
-        <v>200.4422066522172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>114.9125470113841</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>114.9125470113841</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5203,46 +5203,46 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138163</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1425.009668798901</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1261.086892113329</v>
       </c>
       <c r="U13" t="n">
-        <v>936.042825624545</v>
+        <v>1047.444375501423</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915632</v>
+        <v>853.2613054684415</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689348</v>
+        <v>641.727178545813</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981118</v>
+        <v>479.44313147499</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.0415815981118</v>
+        <v>328.1273454378272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1467.291089243225</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>815.124613155088</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185755</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527725</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5312,16 +5312,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2661.123948618401</v>
+        <v>2438.340323662383</v>
       </c>
       <c r="W14" t="n">
-        <v>2361.921188732882</v>
+        <v>2438.340323662383</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.921188732882</v>
+        <v>2120.683993741633</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.921188732882</v>
+        <v>1795.989559808428</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.3882169375162</v>
+        <v>374.6989287590503</v>
       </c>
       <c r="C16" t="n">
-        <v>495.3882169375162</v>
+        <v>374.6989287590503</v>
       </c>
       <c r="D16" t="n">
-        <v>411.5513789862249</v>
+        <v>290.8620908077595</v>
       </c>
       <c r="E16" t="n">
-        <v>327.7888419916213</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507882</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964276</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,7 +5440,7 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1328.11699054622</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1328.11699054622</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1328.11699054622</v>
+        <v>942.7001727854838</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.933920513238</v>
+        <v>748.5171027525018</v>
       </c>
       <c r="W16" t="n">
-        <v>922.3997935906094</v>
+        <v>536.9829758298733</v>
       </c>
       <c r="X16" t="n">
-        <v>760.1157465197864</v>
+        <v>374.6989287590503</v>
       </c>
       <c r="Y16" t="n">
-        <v>608.7999604826236</v>
+        <v>374.6989287590503</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924229</v>
@@ -5540,25 +5540,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343059</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655151</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072231</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.202162476281</v>
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924119</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5777,19 +5777,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
@@ -5978,7 +5978,7 @@
         <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924227</v>
@@ -5987,16 +5987,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
         <v>2132.883732040978</v>
@@ -6008,28 +6008,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K24" t="n">
-        <v>456.9185815712231</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L24" t="n">
-        <v>456.9185815712231</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M24" t="n">
-        <v>1084.690231197904</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031230018</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222421</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960418</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343059</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655151</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918814</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6209,46 +6209,46 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859516</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343937</v>
+        <v>1100.28679488479</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118091</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755553</v>
+        <v>2360.201702025979</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508976</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.428440379498</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377511</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6300,22 +6300,22 @@
         <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="K27" t="n">
-        <v>186.4798411672776</v>
+        <v>393.1040050097766</v>
       </c>
       <c r="L27" t="n">
-        <v>670.0459270655908</v>
+        <v>876.6700909080898</v>
       </c>
       <c r="M27" t="n">
-        <v>1297.817576692272</v>
+        <v>876.6700909080898</v>
       </c>
       <c r="N27" t="n">
-        <v>1297.817576692272</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985354</v>
+        <v>504.3300981985347</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D28" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414153</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878062</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879675</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746014</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755023</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904117</v>
@@ -6397,37 +6397,37 @@
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026484</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,22 +6464,22 @@
         <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838403</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331943</v>
+        <v>1156.101301882803</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106097</v>
+        <v>1795.153563656957</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2416.016209023993</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2949.107171645895</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q29" t="n">
         <v>3668.242947377512</v>
@@ -6494,16 +6494,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1840.480565683104</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2357.000848274085</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414154</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878062</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879675</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746014</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6619,10 +6619,10 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192013</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225744</v>
@@ -6643,13 +6643,13 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
@@ -6661,10 +6661,10 @@
         <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463661</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057082</v>
+        <v>601.3807258108103</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230761</v>
+        <v>302.1370811803388</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.452769904122</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667232</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150699</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770098</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.49561390162</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939828</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>551.1212215006583</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1178.89287112734</v>
       </c>
       <c r="N33" t="n">
-        <v>2153.517991661507</v>
+        <v>1834.670842337899</v>
       </c>
       <c r="O33" t="n">
-        <v>2153.517991661507</v>
+        <v>2351.19112492888</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996512</v>
+        <v>365.6713676929709</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918659</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237453</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431901</v>
+        <v>86.73045008374183</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>143.5810516071534</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>337.0682132920782</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812064</v>
+        <v>501.195853165878</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194704</v>
+        <v>799.139552079125</v>
       </c>
       <c r="N34" t="n">
-        <v>884.291208377093</v>
+        <v>1093.981306685317</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145871</v>
+        <v>1256.686073727025</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250173</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395505</v>
+        <v>835.7257283273668</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000928</v>
+        <v>666.3144371400697</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124405</v>
+        <v>546.1532258045781</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584486</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6920,49 +6920,49 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404056</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7011,19 +7011,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229905</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222409</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960407</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343048</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>683.142663665514</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404056</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7248,28 +7248,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>270.969171101253</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750528</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="41">
@@ -7394,34 +7394,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,22 +7430,22 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7485,19 +7485,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7549,7 +7549,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E43" t="n">
         <v>149.5651460634914</v>
@@ -7558,37 +7558,37 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750528</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
         <v>1098.202162476281</v>
@@ -7612,7 +7612,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975457</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.768900612944</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573997</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224693</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840158</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443167</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885602</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369578</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218809</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634918</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588731</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072696</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462929</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390483</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184714</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567354</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879445</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296525</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106231</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476282</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918821</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161914</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.955836619424</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.30217123301</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984015</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974532</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>529.8612640735041</v>
       </c>
       <c r="M2" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>498.7223263522517</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
-        <v>554.0405189317963</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>100.3669100581418</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>151.3981012518489</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>629.4813513310232</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>151.3369738679542</v>
+        <v>183.3300712017763</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>663.7441572675033</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2595653118431</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N21" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,13 +9714,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K24" t="n">
-        <v>374.1267046741214</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9729,13 +9729,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,22 +9951,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O27" t="n">
-        <v>551.1687275349756</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,10 +10425,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10437,16 +10437,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>277.3747806479529</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372782</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>77.4237265640746</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993867</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681691</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>30.5799680191931</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456089</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>58.70386729909333</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>253.2975975973716</v>
+        <v>32.74180889091409</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>14.36378290795544</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>6.590773689330085</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1111144.842331038</v>
+        <v>1109340.199489757</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1111144.842331038</v>
+        <v>1109340.199489757</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1001708.093814464</v>
+        <v>1001708.093814463</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1001708.093814464</v>
+        <v>1001708.093814463</v>
       </c>
     </row>
     <row r="7">
@@ -26314,16 +26314,16 @@
         <v>216398.6137120282</v>
       </c>
       <c r="C2" t="n">
+        <v>216398.6137120281</v>
+      </c>
+      <c r="D2" t="n">
         <v>216398.6137120282</v>
-      </c>
-      <c r="D2" t="n">
-        <v>216398.6137120281</v>
       </c>
       <c r="E2" t="n">
         <v>191230.8281092805</v>
       </c>
       <c r="F2" t="n">
-        <v>191230.8281092805</v>
+        <v>191230.8281092806</v>
       </c>
       <c r="G2" t="n">
         <v>216398.6137120282</v>
@@ -26332,28 +26332,28 @@
         <v>216398.6137120281</v>
       </c>
       <c r="I2" t="n">
-        <v>216398.6137120281</v>
+        <v>216398.6137120282</v>
       </c>
       <c r="J2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120283</v>
       </c>
       <c r="K2" t="n">
         <v>216398.6137120283</v>
       </c>
       <c r="L2" t="n">
-        <v>216398.6137120279</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="M2" t="n">
-        <v>216398.613712028</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="N2" t="n">
-        <v>216398.6137120276</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="O2" t="n">
         <v>216398.6137120281</v>
       </c>
       <c r="P2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668188</v>
+        <v>47425.3255366819</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>1.82055073001076e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962308</v>
+        <v>43252.52447081124</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277127</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488216</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488216</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
+        <v>151510.2534766781</v>
+      </c>
+      <c r="F4" t="n">
         <v>151510.2534766782</v>
       </c>
-      <c r="F4" t="n">
-        <v>151510.2534766781</v>
-      </c>
       <c r="G4" t="n">
+        <v>199269.1699682602</v>
+      </c>
+      <c r="H4" t="n">
         <v>199269.1699682603</v>
-      </c>
-      <c r="H4" t="n">
-        <v>199269.1699682602</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682603</v>
@@ -26445,7 +26445,7 @@
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26457,7 +26457,7 @@
         <v>199269.1699682603</v>
       </c>
       <c r="P4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,31 +26485,31 @@
         <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="I5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="J5" t="n">
+        <v>63659.04525391948</v>
+      </c>
+      <c r="K5" t="n">
+        <v>63659.04525391949</v>
+      </c>
+      <c r="L5" t="n">
+        <v>60823.1981331542</v>
+      </c>
+      <c r="M5" t="n">
         <v>58169.76931551965</v>
       </c>
-      <c r="I5" t="n">
-        <v>58169.76931551967</v>
-      </c>
-      <c r="J5" t="n">
-        <v>63659.0452539195</v>
-      </c>
-      <c r="K5" t="n">
-        <v>63659.0452539195</v>
-      </c>
-      <c r="L5" t="n">
-        <v>61795.73629173847</v>
-      </c>
-      <c r="M5" t="n">
-        <v>58169.76931551968</v>
-      </c>
       <c r="N5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264914.9483337207</v>
+        <v>-259961.9549056656</v>
       </c>
       <c r="C6" t="n">
-        <v>-82710.00004186486</v>
+        <v>-86103.29787161066</v>
       </c>
       <c r="D6" t="n">
-        <v>-91030.84042743462</v>
+        <v>-98767.12965082604</v>
       </c>
       <c r="E6" t="n">
-        <v>-125588.0065412828</v>
+        <v>-125797.7380879722</v>
       </c>
       <c r="F6" t="n">
-        <v>-13465.44506723809</v>
+        <v>-13675.17661392765</v>
       </c>
       <c r="G6" t="n">
-        <v>-88465.65110843367</v>
+        <v>-88465.65110843358</v>
       </c>
       <c r="H6" t="n">
-        <v>-41040.32557175183</v>
+        <v>-41040.32557175198</v>
       </c>
       <c r="I6" t="n">
-        <v>-41040.32557175199</v>
+        <v>-41040.32557175175</v>
       </c>
       <c r="J6" t="n">
-        <v>-254082.2431690371</v>
+        <v>-247565.9580144638</v>
       </c>
       <c r="K6" t="n">
-        <v>-47280.09397453457</v>
+        <v>-47280.09397453465</v>
       </c>
       <c r="L6" t="n">
-        <v>-102462.6829091561</v>
+        <v>-106511.5201196282</v>
       </c>
       <c r="M6" t="n">
-        <v>-83241.15503137499</v>
+        <v>-84292.85004256306</v>
       </c>
       <c r="N6" t="n">
-        <v>-41040.3255717524</v>
+        <v>-41040.32557175179</v>
       </c>
       <c r="O6" t="n">
-        <v>-68808.01961452313</v>
+        <v>-68808.01961452306</v>
       </c>
       <c r="P6" t="n">
-        <v>-41040.32557175163</v>
+        <v>-41040.32557175182</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26756,28 +26756,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,28 +26808,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443779</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.060736844378</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.4391950293131</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660693</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551335</v>
+        <v>17.58004954287436</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773706</v>
+        <v>659.3622249971639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407345</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2238921855752</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>233.1980200073318</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343642</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.03005425080886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,22 +27537,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>160.8567164116194</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>39.36390398675147</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>228.4183101310804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>169.4149915536313</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>51.59637205718771</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343642</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,13 +27786,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>122.9077095714779</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27828,16 +27828,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>161.9496836868711</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>263.919394041052</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>18.05117775061547</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,10 +27913,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.54092304499605</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28020,7 +28020,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28029,7 +28029,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>24.04094380275529</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28746,13 +28746,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634530001</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155843</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,10 +28992,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668902</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431643</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431643</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901152</v>
+        <v>30.2722376590109</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29539,7 +29539,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599447</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29554,7 +29554,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.6505275559943</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566171</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>81.10808140893016</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224705</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>18.7144686125387</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668787</v>
+        <v>35.71049010668857</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.01250026485309</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>28.01250026485312</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>35.71049010669014</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -32710,25 +32710,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -32947,25 +32947,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -33184,25 +33184,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -33421,25 +33421,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -33658,25 +33658,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -33895,25 +33895,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -34132,25 +34132,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -34369,25 +34369,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>376.6130943430124</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>349.6038350144676</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
-        <v>468.6684060776297</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>9.378756902227758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>33.71826330950282</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>479.756299733296</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>58.94985181864224</v>
+        <v>90.94294915246441</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>514.6256659297192</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>247.8874524576764</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257292</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488448</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.809314087322</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N21" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,10 +36288,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716088</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36358,25 +36358,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="K24" t="n">
-        <v>284.5297693407881</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36449,13 +36449,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529949</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060962</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272227</v>
+        <v>528.5755626272219</v>
       </c>
       <c r="M26" t="n">
-        <v>645.5073351254082</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449114</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457865</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853757</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698315</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O27" t="n">
-        <v>458.4811686460866</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215739</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425276</v>
+        <v>584.9538525242054</v>
       </c>
       <c r="M29" t="n">
-        <v>645.5073351254082</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192278</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201029</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809043</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.3632145670535</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215742</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
@@ -37002,10 +37002,10 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
         <v>97.44803848446894</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318508</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105731</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458575</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065878</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110592</v>
+        <v>299.4926067837692</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273775</v>
+        <v>43.49509683159689</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37157,16 +37157,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791197</v>
+        <v>76.79385455031144</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029874975</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528801</v>
+        <v>5.636002634529504</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37476,13 +37476,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>259.4442692519041</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516631</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868731</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529554</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434252</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>201.4959849287101</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
